--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://franklintempleton-my.sharepoint.com/personal/zane_chodaniecky_franklintempleton_com/Documents/Documents/Python/Kaggle/Insurance Premiums/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb58bae7eba27982/Documents/Python/Kaggle/Playground Series/s4e12 - Insurance Premiums/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B3509DF-DB72-42EC-9CBE-10372DDD4E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="8_{9B3509DF-DB72-42EC-9CBE-10372DDD4E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01FB9642-F1D4-4D06-9724-A4D807402DB2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E147C88-ACCA-4134-A15E-71A7071E9863}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E147C88-ACCA-4134-A15E-71A7071E9863}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Age</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Number of Dependents</t>
   </si>
   <si>
-    <t>Education Leel</t>
-  </si>
-  <si>
     <t>Occupation</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>% Nulls</t>
   </si>
   <si>
-    <t>Deleted</t>
-  </si>
-  <si>
     <t>Couldn't find a good identifier with different averages and health score range is large</t>
   </si>
   <si>
@@ -134,9 +128,6 @@
     <t>Generated Fields</t>
   </si>
   <si>
-    <t>Policy Age</t>
-  </si>
-  <si>
     <t>Age Category</t>
   </si>
   <si>
@@ -150,6 +141,27 @@
   </si>
   <si>
     <t>Not sure how this field even applies?</t>
+  </si>
+  <si>
+    <t>Dropped</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Education Level</t>
+  </si>
+  <si>
+    <t>I assume this is yearly car insurance premium</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Average for a given age category and education level</t>
+  </si>
+  <si>
+    <t>Multiple Date Fields</t>
   </si>
 </sst>
 </file>
@@ -187,7 +199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -210,20 +222,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -560,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E480166C-6E29-4E0A-A60F-90721B2C103E}">
-  <dimension ref="B1:H21"/>
+  <dimension ref="B1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,53 +626,61 @@
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>21</v>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="2"/>
@@ -632,185 +688,215 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4">
-        <v>29</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>30</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="6">
-        <v>29</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5">
+        <v>30</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4">
         <v>10</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="E14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="C15" s="3">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="C18" s="3">
+        <v>6</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="G19" s="2"/>
@@ -818,23 +904,41 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+    <row r="21" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
